--- a/Model Comparisons.xlsx
+++ b/Model Comparisons.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>MODEL NAME</t>
   </si>
@@ -32,12 +32,6 @@
     <t>ADVANTAGES</t>
   </si>
   <si>
-    <t>DISADVANTAGES</t>
-  </si>
-  <si>
-    <t>COMMENTS</t>
-  </si>
-  <si>
     <t>Linear Regression</t>
   </si>
   <si>
@@ -66,15 +60,74 @@
   </si>
   <si>
     <t>SUPPORT VECTOR MACHINES</t>
+  </si>
+  <si>
+    <t>Training speed</t>
+  </si>
+  <si>
+    <t>Classification or Regression</t>
+  </si>
+  <si>
+    <t>Boosting</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Slower</t>
+  </si>
+  <si>
+    <t>Faster</t>
+  </si>
+  <si>
+    <t>Feature Scaling requirement</t>
+  </si>
+  <si>
+    <t>Prediction Accuracy</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Works well with small observations?</t>
+  </si>
+  <si>
+    <t>PROS</t>
+  </si>
+  <si>
+    <t>CONS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -89,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -97,14 +150,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,84 +509,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H2" sqref="D2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -471,5 +720,6 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Model Comparisons.xlsx
+++ b/Model Comparisons.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>MODEL NAME</t>
   </si>
   <si>
-    <t>ADVANTAGES</t>
-  </si>
-  <si>
     <t>Linear Regression</t>
   </si>
   <si>
@@ -62,62 +59,81 @@
     <t>SUPPORT VECTOR MACHINES</t>
   </si>
   <si>
-    <t>Training speed</t>
-  </si>
-  <si>
-    <t>Classification or Regression</t>
-  </si>
-  <si>
     <t>Boosting</t>
   </si>
   <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>Classification</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Great</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Slower</t>
-  </si>
-  <si>
-    <t>Faster</t>
-  </si>
-  <si>
-    <t>Feature Scaling requirement</t>
-  </si>
-  <si>
-    <t>Prediction Accuracy</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Works well with small observations?</t>
-  </si>
-  <si>
     <t>PROS</t>
   </si>
   <si>
     <t>CONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great in demonstrating the relationship between variables and outcome variable. Easy
+to understand
+</t>
+  </si>
+  <si>
+    <t>Oversimplifies world problems and 
+variables and outcome variables don't
+typically exhibit a linear relationship. Data is very sensitive to outliers.</t>
+  </si>
+  <si>
+    <t>Simple to implement. Very flexible classification scheme. Works well with multiple class labels</t>
+  </si>
+  <si>
+    <t>Requires extensive computational power. Requires distance computation from each n value. Accuracy is compromised by irrelevant features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forces you to look at all possible outcomes of a decision. Provides a framework to consider the probability and payoff of decisions. Easy to understand. Prints out a visual that shows you the decision was made. </t>
+  </si>
+  <si>
+    <t>Unstable because a small change in data can drastically change the outcome of a tree. They don't perform as awell as other prediction models. A single tree overfits the data.</t>
+  </si>
+  <si>
+    <t>Much more complex than a decision tree. They are a ''black box'' model because you cannot really see how the model reaches its outcome.</t>
+  </si>
+  <si>
+    <t>Good when dealing with multi-dimensuional data. Better than trees at ranking and probability estimation.</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/What-are-the-advantages-of-logistic-regression-over-decision-trees-Are-there-any-cases-where-its-better-to-use-logistic-regression-instead-of-decision-trees</t>
+  </si>
+  <si>
+    <t>Requires a lot of data to achieve meaningful results. Limited to outcome variables. Each data point needs to be independent of all other data points. Overfitting the model is another issue</t>
+  </si>
+  <si>
+    <t>Gives an estimate which minimizes the sum of square errors. Penalizes the estimates to reduce overfitting. Reduces variance by introducing bias. Also works well in a situation where features are highly correlated</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/What-are-the-benefits-of-using-ridge-regression-over-ordinary-linear-regression</t>
+  </si>
+  <si>
+    <t>https://hackernoon.com/practical-machine-learning-ridge-regression-vs-lasso-a00326371ece</t>
+  </si>
+  <si>
+    <t>Goes a step further than Ridge regression by setting irrelevant variables to zero. Extracts unnecssary features thus, making the prediction model stronger. Simutaneously shrinks parameters and performs variable selection.</t>
+  </si>
+  <si>
+    <t>black box method where the model removes variables without the need of an operator</t>
+  </si>
+  <si>
+    <t>black box method where the model removes variables without the need of an operator. Minimizes error but keeps feature and doesn't set it to zero like LASSO</t>
+  </si>
+  <si>
+    <t>Overcomes the overfitting created by a single decision tree by averaging or combining results from several trees. Less variance and more accurate than a single decision tree. No data scaling required. Cross validation done by RF</t>
+  </si>
+  <si>
+    <t>60-20-20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +149,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -151,86 +183,184 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,217 +639,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="D2:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="4" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Model Comparisons.xlsx
+++ b/Model Comparisons.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>MODEL NAME</t>
   </si>
@@ -35,42 +35,16 @@
     <t>SIMILARITY MODEL</t>
   </si>
   <si>
-    <t>KNN Classifier</t>
-  </si>
-  <si>
-    <t>Decision Tree</t>
-  </si>
-  <si>
     <t>Random Forest</t>
   </si>
   <si>
     <t>Logisitic Regression</t>
   </si>
   <si>
-    <t>Ridge Regression</t>
-  </si>
-  <si>
-    <t>Lasso Regression</t>
-  </si>
-  <si>
     <t>Linear SVM</t>
   </si>
   <si>
     <t>SUPPORT VECTOR MACHINES</t>
-  </si>
-  <si>
-    <t>Boosting</t>
-  </si>
-  <si>
-    <t>PROS</t>
-  </si>
-  <si>
-    <t>CONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great in demonstrating the relationship between variables and outcome variable. Easy
-to understand
-</t>
   </si>
   <si>
     <t>Oversimplifies world problems and 
@@ -78,55 +52,92 @@
 typically exhibit a linear relationship. Data is very sensitive to outliers.</t>
   </si>
   <si>
-    <t>Simple to implement. Very flexible classification scheme. Works well with multiple class labels</t>
-  </si>
-  <si>
     <t>Requires extensive computational power. Requires distance computation from each n value. Accuracy is compromised by irrelevant features</t>
   </si>
   <si>
-    <t xml:space="preserve">Forces you to look at all possible outcomes of a decision. Provides a framework to consider the probability and payoff of decisions. Easy to understand. Prints out a visual that shows you the decision was made. </t>
-  </si>
-  <si>
     <t>Unstable because a small change in data can drastically change the outcome of a tree. They don't perform as awell as other prediction models. A single tree overfits the data.</t>
   </si>
   <si>
     <t>Much more complex than a decision tree. They are a ''black box'' model because you cannot really see how the model reaches its outcome.</t>
   </si>
   <si>
-    <t>Good when dealing with multi-dimensuional data. Better than trees at ranking and probability estimation.</t>
-  </si>
-  <si>
     <t>Resource</t>
   </si>
   <si>
     <t>https://www.quora.com/What-are-the-advantages-of-logistic-regression-over-decision-trees-Are-there-any-cases-where-its-better-to-use-logistic-regression-instead-of-decision-trees</t>
   </si>
   <si>
-    <t>Requires a lot of data to achieve meaningful results. Limited to outcome variables. Each data point needs to be independent of all other data points. Overfitting the model is another issue</t>
-  </si>
-  <si>
-    <t>Gives an estimate which minimizes the sum of square errors. Penalizes the estimates to reduce overfitting. Reduces variance by introducing bias. Also works well in a situation where features are highly correlated</t>
-  </si>
-  <si>
     <t>https://www.quora.com/What-are-the-benefits-of-using-ridge-regression-over-ordinary-linear-regression</t>
   </si>
   <si>
     <t>https://hackernoon.com/practical-machine-learning-ridge-regression-vs-lasso-a00326371ece</t>
   </si>
   <si>
-    <t>Goes a step further than Ridge regression by setting irrelevant variables to zero. Extracts unnecssary features thus, making the prediction model stronger. Simutaneously shrinks parameters and performs variable selection.</t>
-  </si>
-  <si>
     <t>black box method where the model removes variables without the need of an operator</t>
   </si>
   <si>
-    <t>black box method where the model removes variables without the need of an operator. Minimizes error but keeps feature and doesn't set it to zero like LASSO</t>
-  </si>
-  <si>
-    <t>Overcomes the overfitting created by a single decision tree by averaging or combining results from several trees. Less variance and more accurate than a single decision tree. No data scaling required. Cross validation done by RF</t>
-  </si>
-  <si>
     <t>60-20-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great in demonstrating the relationship between variables and outcome variable. Easy to understand. Uses OLS to minimize the sum of the squared residuals
+</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Gives an estimate which minimizes the sum of square errors. Penalizes the estimates to reduce overfitting. Reduces variance by introducing bias. Also works well in a situation where features are highly correlated. OLS modified to minimize the squared sum of the coefficients</t>
+  </si>
+  <si>
+    <t>Goes a step further than Ridge regression by setting irrelevant variables to zero. Extracts unnecssary features thus, making the prediction model stronger. Simutaneously shrinks parameters and performs variable selection.  OLS modified to minimize the absolute sums of the coefficients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good when dealing with multi-dimensuional data. Better than trees at ranking and probability estimation. Measures the probabiilities of default class. Intended for binary classification problems. </t>
+  </si>
+  <si>
+    <t>Requires a lot of data to achieve meaningful results. Limited to outcome variables and doesn't remove noise, must consider removing any outliers. .Gaussian Distribution Each data point needs to be independent of all other data points. Must remove correlated inputs. Overfitting the model is another issue</t>
+  </si>
+  <si>
+    <t>Ridge Regression L2-Regularization</t>
+  </si>
+  <si>
+    <t>Lasso Regression L1-Regularization</t>
+  </si>
+  <si>
+    <t>Minimizes error but keeps feature and doesn't set it to zero like LASSO</t>
+  </si>
+  <si>
+    <t>KNN Classifier/Regression</t>
+  </si>
+  <si>
+    <t>Similarity model. Uses euclidean distance to find the nearest known obeservation. Simple to implement. Very flexible classification scheme. Works well with multiple class labels. K represents the number of neighbors to be looked at. Each k gets a vote on the predicted outcome</t>
+  </si>
+  <si>
+    <t>Picking K, larger the k the more smoothed out your decision will be. Smaller k, prone to overfitting</t>
+  </si>
+  <si>
+    <t>Decision Tree (CART)</t>
+  </si>
+  <si>
+    <t>Data is continuously split according to a certain parameter. The tree can be explained by two entities, namely decision nodes and leaves. The leaves are the decisions or the final outcomes. And the decision nodes are where the data is split.. Forces you to look at all possible outcomes of a decision. Provides a framework to consider the probability and payoff of decisions. Easy to understand. Prints out a visual that shows you the decision was made. Little data preparation</t>
+  </si>
+  <si>
+    <t>Multiple trees create where each tree gets a vote on the outcome. Overcomes the overfitting created by a single decision tree by averaging or combining results from several trees. Low variance and high accuracy. No data scaling required. Cross validation done by RF</t>
+  </si>
+  <si>
+    <t>Classifier and regression model. Algorithim outputs an optimal hyperplane which categorizes new examples. Finds a line in a hyperdimensional space that separates classes. Aims to create a margin where the separation is larger for both the classes. A margin where the nearest point for each class is far way from the boundry. solution is guaranteed to be the global minimum not a local minimum. Regularization parameter helps relieve overfitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takes a long time to run. Designed for binary classification.  Doing inference on such a model becomes difficult by traditional means. Without a probabilistic underpinning, we cannot imagine that we are sampling a larger population and consequently cannot be inferring anything about the population </t>
+  </si>
+  <si>
+    <t>Gradient Boosting</t>
+  </si>
+  <si>
+    <t>Models the data over and over, each time adjusting the model based on what was learned from the previous one. Works with classification and regression. We identify the information that the model was not able to account for (incorrect predictions in classifier, and residuals in regression) and build a new simple model that targets that new pool of information. Can work with any combination of loss function. GB uses decision treees more often and minimizes the residual or the negative log-likelihood. Each time we run a decision tree, we extract the residuals. Then we run a new decision tree, using those residuals as the outcome to be predicted. After reaching a stopping point, we add together the predicted values from all of the decision trees to create the final gradient boosted prediction. Use subsampling(introduce randomness) or shrinking(adjustin learning rate parameter) to reduce overfitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBDT training generally takes longer because of the fact that trees are built sequentially. However benchmark results have shown GBDT are better learners than Random Forests. </t>
   </si>
 </sst>
 </file>
@@ -322,26 +333,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -350,14 +352,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -641,174 +664,185 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="21" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.21875" customWidth="1"/>
+    <col min="4" max="4" width="50.109375" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="11" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="E10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="245.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Model Comparisons.xlsx
+++ b/Model Comparisons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13008" windowHeight="5784"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12936" windowHeight="5784"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>MODEL NAME</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Minimizes error but keeps feature and doesn't set it to zero like LASSO</t>
   </si>
   <si>
-    <t>KNN Classifier/Regression</t>
-  </si>
-  <si>
     <t>Similarity model. Uses euclidean distance to find the nearest known obeservation. Simple to implement. Very flexible classification scheme. Works well with multiple class labels. K represents the number of neighbors to be looked at. Each k gets a vote on the predicted outcome</t>
   </si>
   <si>
@@ -138,6 +135,15 @@
   </si>
   <si>
     <t xml:space="preserve">GBDT training generally takes longer because of the fact that trees are built sequentially. However benchmark results have shown GBDT are better learners than Random Forests. </t>
+  </si>
+  <si>
+    <t>KNN Regression</t>
+  </si>
+  <si>
+    <t>KNN Classifier/Regression (add below)</t>
+  </si>
+  <si>
+    <t>REMOVE</t>
   </si>
 </sst>
 </file>
@@ -333,14 +339,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -357,6 +360,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,22 +385,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -662,16 +671,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="18" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.109375" customWidth="1"/>
     <col min="5" max="5" width="38.21875" customWidth="1"/>
@@ -681,20 +690,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -702,156 +711,168 @@
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="19" t="s">
+      <c r="F3" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="22" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="18" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4" t="s">
+      <c r="E6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4" t="s">
+      <c r="E7" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="245.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="245.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
-      <c r="B11" s="20" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="E12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="14"/>
+      <c r="F12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1"/>
-    <hyperlink ref="F9" r:id="rId2"/>
-    <hyperlink ref="F8" r:id="rId3"/>
+    <hyperlink ref="F8" r:id="rId1"/>
+    <hyperlink ref="F10" r:id="rId2"/>
+    <hyperlink ref="F9" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
